--- a/temp_doc/STS X XI 2024 GENAP/MAPEL XI.xlsx
+++ b/temp_doc/STS X XI 2024 GENAP/MAPEL XI.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/STS X XI 2024 GENAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10605FF-B77E-8849-BF1F-0234ACA2DA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A82C9-77FB-FE4B-A488-5AC5F3934FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{237EA0EA-373E-0D45-A6B1-EAC49E84018B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{237EA0EA-373E-0D45-A6B1-EAC49E84018B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>category</t>
   </si>
@@ -47,82 +47,37 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>AGAMA ISLAM (XI PM)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (XI PM)</t>
-  </si>
-  <si>
-    <t>BAHASA MANDARIN (XI PM)</t>
-  </si>
-  <si>
-    <t>PKK (XI PM)</t>
-  </si>
-  <si>
-    <t>PJOK (XI PM)</t>
-  </si>
-  <si>
-    <t>PENDIDIKAN PANCASILA (XI PM)</t>
-  </si>
-  <si>
-    <t>F.1 (XI PM)</t>
-  </si>
-  <si>
-    <t>DASAR AKUNTANSI (XI PM)</t>
-  </si>
-  <si>
-    <t>F.2 (XI PM)</t>
-  </si>
-  <si>
-    <t>SEJARAH (XI PM)</t>
-  </si>
-  <si>
-    <t>F.3 (XI PM)</t>
-  </si>
-  <si>
-    <t>F.4 (XI PM)</t>
-  </si>
-  <si>
-    <t>BISNIS ONLINE (XI PM)</t>
-  </si>
-  <si>
-    <t>AGAMA ISLAM (X PM)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (X PM)</t>
-  </si>
-  <si>
-    <t>SEJARAH (X PM)</t>
-  </si>
-  <si>
-    <t>BAHASA MANDARIN (X PM)</t>
-  </si>
-  <si>
-    <t>PJOK (X PM)</t>
-  </si>
-  <si>
-    <t>PENDIDIKAN PANCASILA (X PM)</t>
-  </si>
-  <si>
-    <t>SENI BUDAYA (X PM)</t>
-  </si>
-  <si>
-    <t>E.1,2 (X PM)</t>
-  </si>
-  <si>
-    <t>E.3,4 (X PM)</t>
-  </si>
-  <si>
-    <t>INFORMATIKA (X PM)</t>
-  </si>
-  <si>
-    <t>E.5,7,8,9 (X PM)</t>
-  </si>
-  <si>
-    <t>PROJEK IPAS (X PM)</t>
-  </si>
-  <si>
-    <t>E.6 (X PM)</t>
+    <t>AGAMA ISLAM (XI DKV)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XI DKV)</t>
+  </si>
+  <si>
+    <t>PKK (XI DKV)</t>
+  </si>
+  <si>
+    <t>MANDARIN (XI DKV)</t>
+  </si>
+  <si>
+    <t>PJOK (XI DKV)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA (XI DKV)</t>
+  </si>
+  <si>
+    <t>BISNIS ONLINE (XI DKV)</t>
+  </si>
+  <si>
+    <t>F.1,2 (XI DKV)</t>
+  </si>
+  <si>
+    <t>F.4 (XI DKV)</t>
+  </si>
+  <si>
+    <t>F.3,5 (XI DKV)</t>
+  </si>
+  <si>
+    <t>SEJARAH (XI DKV)</t>
   </si>
 </sst>
 </file>
@@ -520,7 +475,7 @@
   <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,288 +496,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>171</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>171</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>172</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>172</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>172</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>172</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>172</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>172</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>172</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>172</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>172</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>172</v>
-      </c>
-      <c r="B26" t="s">
         <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>172</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
